--- a/outputs-GTDB-r202/d__Archaea.xlsx
+++ b/outputs-GTDB-r202/d__Archaea.xlsx
@@ -1432,7 +1432,7 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>p__Nanoarchaeota</t>
+          <t>p__Nanoarchaeota(reject)</t>
         </is>
       </c>
     </row>
@@ -1752,7 +1752,7 @@
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>p__Nanoarchaeota</t>
+          <t>p__Nanoarchaeota(reject)</t>
         </is>
       </c>
     </row>
@@ -2072,7 +2072,7 @@
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>p__Micrarchaeota</t>
+          <t>p__Micrarchaeota(reject)</t>
         </is>
       </c>
     </row>
@@ -2952,7 +2952,7 @@
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>p__Thermoproteota</t>
+          <t>p__Thermoproteota(reject)</t>
         </is>
       </c>
     </row>
@@ -3192,7 +3192,7 @@
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>p__Thermoplasmatota</t>
+          <t>p__Thermoplasmatota(reject)</t>
         </is>
       </c>
     </row>
